--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -12,7 +12,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Sl.No</t>
   </si>
@@ -77,12 +77,16 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -441,8 +445,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,6 +470,9 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
